--- a/datasets/PanCancerAtlas.xlsx
+++ b/datasets/PanCancerAtlas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pz929\Desktop\PanCancerAtlas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pz929\Desktop\PanCancerAtlas\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A368B0B4-583B-4807-9A74-5AD90F6AFB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B57412-4B94-4274-9681-2DC97823F0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">basic!$A$1:$G$326</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data!$A$1:$I$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">kit!$A$1:$E$117</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ref!$A$1:$F$319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ref!$A$1:$F$324</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6479" uniqueCount="2140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6490" uniqueCount="2149">
   <si>
     <t>cancer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7876,6 +7876,40 @@
   </si>
   <si>
     <t xml:space="preserve">Hematological Oncology </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex vivo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single-nucleus and spatial transcriptome profiling of pancreatic cancer identifies multicellular dynamics associated with neoadjuvant treatment</t>
+  </si>
+  <si>
+    <t>PDAC_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE202051</t>
+  </si>
+  <si>
+    <t>pan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epigenetic regulation during cancer transitions across 11 tumour types</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8263,10 +8297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G326"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A318" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="D339" sqref="D339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8275,8 +8309,8 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
     <col min="4" max="4" width="56.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8615,6 +8649,9 @@
       <c r="D17" s="1" t="s">
         <v>1498</v>
       </c>
+      <c r="E17" t="s">
+        <v>2140</v>
+      </c>
       <c r="F17" t="s">
         <v>215</v>
       </c>
@@ -14908,6 +14945,34 @@
       </c>
       <c r="G326" t="s">
         <v>2133</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B327" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C327" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D327" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B328" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C328" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D328" t="s">
+        <v>2148</v>
       </c>
     </row>
   </sheetData>
@@ -15226,10 +15291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0D7499-2BC8-4160-9C01-C942E2F61EDC}">
-  <dimension ref="A1:F324"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A325" sqref="A325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -21564,8 +21629,16 @@
         <v>2131</v>
       </c>
     </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C325" t="s">
+        <v>2141</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F319" xr:uid="{CB0D7499-2BC8-4160-9C01-C942E2F61EDC}"/>
+  <autoFilter ref="A1:F324" xr:uid="{CB0D7499-2BC8-4160-9C01-C942E2F61EDC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F312">
     <sortCondition ref="A1:A312"/>
   </sortState>
